--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.021820.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.021820.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2415,12 +2415,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4245,12 +4245,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4543,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4627,12 +4627,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5131,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5215,12 +5215,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5299,12 +5299,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5341,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5933,12 +5933,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6143,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6185,12 +6185,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6353,12 +6353,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6563,12 +6563,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7193,12 +7193,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7235,12 +7235,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7277,12 +7277,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8247,12 +8247,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8587,12 +8587,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8797,12 +8797,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8839,12 +8839,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10267,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12329,12 +12329,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12669,12 +12669,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12753,12 +12753,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12921,12 +12921,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13345,12 +13345,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13685,12 +13685,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13727,12 +13727,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13857,12 +13857,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14025,12 +14025,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14109,12 +14109,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14911,12 +14911,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15247,12 +15247,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
